--- a/MPI/performance/performance.xlsx
+++ b/MPI/performance/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gits Storage\UW\CSS534-Final-Project\MPI\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B97B51-2FA8-4697-9D90-F8DF45E2BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D300DC0-7198-4EDE-88C7-52FB1C3475F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="2475" windowWidth="20580" windowHeight="17805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7935" yWindow="1770" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Time</t>
+    <t>Node #</t>
   </si>
   <si>
-    <t>node#</t>
+    <t>Time Total</t>
   </si>
   <si>
-    <t>Top K</t>
+    <t>Time Reading File &amp; Data Passing</t>
   </si>
   <si>
-    <t>Improvement</t>
+    <t>Time Data Passing (to slaves)</t>
   </si>
   <si>
-    <t>File-Reading &amp; Data Passing Time (ms)</t>
+    <t>Time Data Passing Back (to master)</t>
   </si>
   <si>
-    <t>Calculation Time (ms)</t>
+    <t>Time KNN</t>
   </si>
   <si>
-    <t>Total Execution Time (ms)</t>
+    <t>求和</t>
   </si>
   <si>
-    <t>Test File Size (nodes)</t>
+    <t>平均值</t>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
+    <t>计数</t>
   </si>
 </sst>
 </file>
@@ -67,8 +73,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,9 +107,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -119,6 +125,1476 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Time Elapsed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> In Each Function</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>38248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18414</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>13981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B361-4C78-A9BF-32909806D782}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Data Passing (to slaves)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B361-4C78-A9BF-32909806D782}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>36109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5911</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>4441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B361-4C78-A9BF-32909806D782}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Data Passing Back (to master)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9196</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>6332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B361-4C78-A9BF-32909806D782}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1641991151"/>
+        <c:axId val="1642002799"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Time Reading File &amp; Data Passing</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>2139</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2861</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3259</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3307</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0">
+                        <c:v>3208</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3218</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3261</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B361-4C78-A9BF-32909806D782}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1641991151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642002799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1642002799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641991151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>483576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>189035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9C06E4-B6F5-B884-A8DB-E13261B3EFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,276 +1860,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>38248</v>
+      </c>
+      <c r="C2">
+        <v>2139</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>36109</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>36831</v>
+      </c>
+      <c r="C3">
+        <v>2861</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-C2</f>
+        <v>722</v>
+      </c>
+      <c r="E3">
+        <v>16726</v>
+      </c>
+      <c r="F3">
+        <v>17244</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24054</v>
+      </c>
+      <c r="C4">
+        <v>2998</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-C2</f>
+        <v>859</v>
+      </c>
+      <c r="E4">
+        <v>9914</v>
+      </c>
+      <c r="F4">
+        <v>11142</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18880</v>
+      </c>
+      <c r="C5">
+        <v>3259</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5-C2</f>
+        <v>1120</v>
+      </c>
+      <c r="E5">
+        <v>7176</v>
+      </c>
+      <c r="F5">
+        <v>8445</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>18414</v>
+      </c>
+      <c r="C6">
+        <v>3307</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C2</f>
+        <v>1168</v>
+      </c>
+      <c r="E6">
+        <v>5911</v>
+      </c>
+      <c r="F6">
+        <v>9196</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13981</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3208</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C2</f>
+        <v>1069</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4441</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6332</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B8">
+        <v>12503</v>
+      </c>
+      <c r="C8">
+        <v>3218</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-C2</f>
+        <v>1079</v>
+      </c>
+      <c r="E8">
+        <v>3792</v>
+      </c>
+      <c r="F8">
+        <v>5493</v>
+      </c>
+      <c r="G8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44891.022916666669</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8913</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10012</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G8" si="0">E2+F2</f>
-        <v>18925</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2/G2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44891.025000000001</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11404</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10157</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>21561</v>
-      </c>
-      <c r="H3" s="3">
-        <f>G2/G3</f>
-        <v>0.87774221974862021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44891.025694444441</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>13160</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6499</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>19659</v>
-      </c>
-      <c r="H4" s="3">
-        <f>G2/G4</f>
-        <v>0.96266341116028287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44891.026388888888</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12627</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4816</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>17443</v>
-      </c>
-      <c r="H5" s="3">
-        <f>G2/G5</f>
-        <v>1.0849624491199907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44891.026388888888</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12625</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3523</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>16148</v>
-      </c>
-      <c r="H6" s="3">
-        <f>G2/G6</f>
-        <v>1.1719717612088185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44891.027083333334</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12807</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2867</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>15674</v>
-      </c>
-      <c r="H7" s="3">
-        <f>G2/G7</f>
-        <v>1.2074135511037387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44891.027777777781</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>13565</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2532</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>16097</v>
-      </c>
-      <c r="H8" s="3">
-        <f>G2/G8</f>
-        <v>1.1756849102317202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44891.020833333336</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>10</v>
+      <c r="B9">
+        <v>12039</v>
+      </c>
+      <c r="C9">
+        <v>3261</v>
       </c>
       <c r="D9" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>13298</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2281</v>
-      </c>
-      <c r="G9" s="2">
-        <f>E9+F9</f>
-        <v>15579</v>
-      </c>
-      <c r="H9" s="3">
-        <f>G2/G9</f>
-        <v>1.2147763014314141</v>
-      </c>
+        <f>C9-C2</f>
+        <v>1122</v>
+      </c>
+      <c r="E9">
+        <v>3251</v>
+      </c>
+      <c r="F9">
+        <v>5524</v>
+      </c>
+      <c r="G9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MPI/performance/performance.xlsx
+++ b/MPI/performance/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gits Storage\UW\CSS534-Final-Project\MPI\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D300DC0-7198-4EDE-88C7-52FB1C3475F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC4639-2C7C-455F-960B-1C79881FA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="1770" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Node #</t>
   </si>
@@ -55,18 +55,6 @@
   <si>
     <t>Time KNN</t>
   </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>汇总</t>
-  </si>
-  <si>
-    <t>计数</t>
-  </si>
 </sst>
 </file>
 
@@ -76,8 +64,16 @@
     <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -101,15 +97,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -222,7 +409,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="bg1">
                   <a:lumMod val="50000"/>
@@ -233,8 +420,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$9</c:f>
@@ -323,19 +580,88 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$9</c:f>
@@ -424,7 +750,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -448,6 +774,72 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1507101316251622E-2"/>
+                  <c:y val="2.4296665398307521E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B361-4C78-A9BF-32909806D782}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6983667112769705E-2"/>
+                  <c:y val="2.1737106271282541E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B361-4C78-A9BF-32909806D782}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6276980980576952E-3"/>
+                  <c:y val="6.3797515091321847E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B361-4C78-A9BF-32909806D782}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -593,20 +985,89 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$9</c:f>
@@ -688,6 +1149,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1641991151"/>
         <c:axId val="1642002799"/>
@@ -1863,7 +2325,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,204 +2333,204 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>38248</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>2139</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>36109</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>36831</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2861</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <f>C3-C2</f>
         <v>722</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>16726</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>17244</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>24054</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>2998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <f>C4-C2</f>
         <v>859</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>9914</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>11142</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>18880</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>3259</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f>C5-C2</f>
         <v>1120</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>7176</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>8445</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>18414</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>3307</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <f>C6-C2</f>
         <v>1168</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>5911</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>9196</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>13981</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>3208</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <f>C7-C2</f>
         <v>1069</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>4441</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
         <v>6332</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>12503</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>3218</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <f>C8-C2</f>
         <v>1079</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>3792</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>5493</v>
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>12039</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>3261</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
         <f>C9-C2</f>
         <v>1122</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
         <v>3251</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="12">
         <v>5524</v>
       </c>
       <c r="G9"/>

--- a/MPI/performance/performance.xlsx
+++ b/MPI/performance/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gits Storage\UW\CSS534-Final-Project\MPI\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC4639-2C7C-455F-960B-1C79881FA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE3CC79-9EEA-435B-A3B0-7E16F0EE3C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -494,7 +494,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -527,7 +527,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -570,7 +570,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -664,7 +664,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -697,7 +697,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -740,7 +740,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,7 +899,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -932,7 +932,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -975,7 +975,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1070,7 +1070,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1103,7 +1103,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:f>Sheet1!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1164,7 +1164,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                          <c15:sqref>Sheet1!$D$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1195,7 +1195,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$B$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1234,7 +1234,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$2:$C$9</c15:sqref>
+                          <c15:sqref>Sheet1!$D$3:$D$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2322,218 +2322,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="D2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
         <v>38248</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D3" s="14">
         <v>2139</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F3" s="14">
         <v>36109</v>
       </c>
-      <c r="F2" s="16">
+      <c r="G3" s="16">
         <v>0</v>
       </c>
-      <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C4" s="4">
         <v>36831</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D4" s="4">
         <v>2861</v>
       </c>
-      <c r="D3" s="5">
-        <f>C3-C2</f>
+      <c r="E4" s="5">
+        <f>D4-D3</f>
         <v>722</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F4" s="4">
         <v>16726</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G4" s="7">
         <v>17244</v>
       </c>
-      <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C5" s="4">
         <v>24054</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D5" s="4">
         <v>2998</v>
       </c>
-      <c r="D4" s="5">
-        <f>C4-C2</f>
+      <c r="E5" s="5">
+        <f>D5-D3</f>
         <v>859</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F5" s="4">
         <v>9914</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G5" s="7">
         <v>11142</v>
       </c>
-      <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C6" s="4">
         <v>18880</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D6" s="4">
         <v>3259</v>
       </c>
-      <c r="D5" s="5">
-        <f>C5-C2</f>
+      <c r="E6" s="5">
+        <f>D6-D3</f>
         <v>1120</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F6" s="4">
         <v>7176</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G6" s="7">
         <v>8445</v>
       </c>
-      <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C7" s="4">
         <v>18414</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D7" s="4">
         <v>3307</v>
       </c>
-      <c r="D6" s="5">
-        <f>C6-C2</f>
+      <c r="E7" s="5">
+        <f>D7-D3</f>
         <v>1168</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F7" s="4">
         <v>5911</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G7" s="7">
         <v>9196</v>
       </c>
-      <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="C8" s="5">
         <v>13981</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D8" s="5">
         <v>3208</v>
       </c>
-      <c r="D7" s="5">
-        <f>C7-C2</f>
+      <c r="E8" s="5">
+        <f>D8-D3</f>
         <v>1069</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F8" s="5">
         <v>4441</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G8" s="8">
         <v>6332</v>
       </c>
-      <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C9" s="4">
         <v>12503</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D9" s="4">
         <v>3218</v>
       </c>
-      <c r="D8" s="5">
-        <f>C8-C2</f>
+      <c r="E9" s="5">
+        <f>D9-D3</f>
         <v>1079</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F9" s="4">
         <v>3792</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G9" s="7">
         <v>5493</v>
       </c>
-      <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="C10" s="10">
         <v>12039</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D10" s="10">
         <v>3261</v>
       </c>
-      <c r="D9" s="11">
-        <f>C9-C2</f>
+      <c r="E10" s="11">
+        <f>D10-D3</f>
         <v>1122</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F10" s="10">
         <v>3251</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G10" s="12">
         <v>5524</v>
       </c>
-      <c r="G9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MPI/performance/performance.xlsx
+++ b/MPI/performance/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gits Storage\UW\CSS534-Final-Project\MPI\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE3CC79-9EEA-435B-A3B0-7E16F0EE3C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD9091-798F-4850-A5B4-83D01D8778BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41385" yWindow="2220" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,25 +337,18 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Time Elapsed</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Elapsed In Each Function</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> In Each Function</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -374,14 +367,11 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -443,22 +433,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -613,22 +598,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -848,22 +828,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -1019,22 +994,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -1310,14 +1280,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1369,14 +1336,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1411,14 +1375,11 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1449,7 +1410,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2324,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
